--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3B32E8-B97B-A74A-A9D7-93BA75904DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F63AD8-1C89-A64B-97F6-5024D33AF039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,247 +22,247 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="81">
   <si>
+    <t>10반 vs 1반</t>
+  </si>
+  <si>
+    <t>2반 vs 1반</t>
+  </si>
+  <si>
+    <t>2반 vs 4반</t>
+  </si>
+  <si>
+    <t>1반 vs 5반</t>
+  </si>
+  <si>
+    <t>4반 vs 8반</t>
+  </si>
+  <si>
+    <t>7반 vs 11반</t>
+  </si>
+  <si>
+    <t>10반 vs 2반</t>
+  </si>
+  <si>
+    <t>12반 vs 1반</t>
+  </si>
+  <si>
+    <t>11반 vs 7반</t>
+  </si>
+  <si>
+    <t>2반 vs 3반</t>
+  </si>
+  <si>
     <t>5반 vs 2반</t>
   </si>
   <si>
-    <t>7반 vs 11반</t>
+    <t>3반 vs 6반</t>
   </si>
   <si>
     <t>10반 vs 11반</t>
   </si>
   <si>
-    <t>12반 vs 1반</t>
-  </si>
-  <si>
-    <t>4반 vs 8반</t>
+    <t>12반 vs 5반</t>
+  </si>
+  <si>
+    <t>9반 vs 10반</t>
+  </si>
+  <si>
+    <t>4반 vs 6반</t>
+  </si>
+  <si>
+    <t>9반 vs 3반</t>
+  </si>
+  <si>
+    <t>10반 vs 7반</t>
+  </si>
+  <si>
+    <t>11반 vs 4반</t>
+  </si>
+  <si>
+    <t>4반 vs 11반</t>
+  </si>
+  <si>
+    <t>6반 vs 2반</t>
+  </si>
+  <si>
+    <t>4반 vs 7반</t>
+  </si>
+  <si>
+    <t>3반 vs 4반</t>
+  </si>
+  <si>
+    <t>5반 vs 12반</t>
+  </si>
+  <si>
+    <t>11반 vs 6반</t>
   </si>
   <si>
     <t>8반 vs 3반</t>
   </si>
   <si>
-    <t>4반 vs 11반</t>
-  </si>
-  <si>
-    <t>5반 vs 12반</t>
-  </si>
-  <si>
-    <t>10반 vs 1반</t>
-  </si>
-  <si>
-    <t>1반 vs 5반</t>
-  </si>
-  <si>
-    <t>11반 vs 4반</t>
-  </si>
-  <si>
-    <t>2반 vs 4반</t>
-  </si>
-  <si>
-    <t>11반 vs 7반</t>
-  </si>
-  <si>
-    <t>10반 vs 2반</t>
-  </si>
-  <si>
-    <t>3반 vs 4반</t>
-  </si>
-  <si>
-    <t>6반 vs 2반</t>
-  </si>
-  <si>
-    <t>12반 vs 5반</t>
-  </si>
-  <si>
-    <t>2반 vs 3반</t>
-  </si>
-  <si>
-    <t>2반 vs 1반</t>
-  </si>
-  <si>
-    <t>10반 vs 7반</t>
-  </si>
-  <si>
-    <t>4반 vs 7반</t>
-  </si>
-  <si>
-    <t>11반 vs 6반</t>
-  </si>
-  <si>
-    <t>4반 vs 6반</t>
-  </si>
-  <si>
-    <t>9반 vs 10반</t>
-  </si>
-  <si>
-    <t>9반 vs 3반</t>
-  </si>
-  <si>
     <t>7반 vs 4반</t>
   </si>
   <si>
+    <t>2반 vs 7반</t>
+  </si>
+  <si>
+    <t>4반 vs 9반</t>
+  </si>
+  <si>
+    <t>9반 vs 6반</t>
+  </si>
+  <si>
+    <t>5반 vs 3반</t>
+  </si>
+  <si>
+    <t>12반 vs 6반</t>
+  </si>
+  <si>
+    <t>1반 vs 12반</t>
+  </si>
+  <si>
+    <t>12반 vs 11반</t>
+  </si>
+  <si>
+    <t>3반 vs 12반</t>
+  </si>
+  <si>
+    <t>4반 vs 12반</t>
+  </si>
+  <si>
+    <t>11반 vs 10반</t>
+  </si>
+  <si>
+    <t>8반 vs 1반</t>
+  </si>
+  <si>
+    <t>6반 vs 10반</t>
+  </si>
+  <si>
+    <t>12반 vs 4반</t>
+  </si>
+  <si>
+    <t>12반 vs 8반</t>
+  </si>
+  <si>
+    <t>7반 vs 9반</t>
+  </si>
+  <si>
+    <t>8반 vs 2반</t>
+  </si>
+  <si>
     <t>10반 vs 4반</t>
   </si>
   <si>
+    <t>1반 vs 7반</t>
+  </si>
+  <si>
+    <t>9반 vs 11반</t>
+  </si>
+  <si>
+    <t>10반 vs 12반</t>
+  </si>
+  <si>
+    <t>7반 vs 5반</t>
+  </si>
+  <si>
+    <t>3반 vs 8반</t>
+  </si>
+  <si>
+    <t>2반 vs 8반</t>
+  </si>
+  <si>
+    <t>6반 vs 1반</t>
+  </si>
+  <si>
+    <t>7반 vs 6반</t>
+  </si>
+  <si>
+    <t>2반 vs 6반</t>
+  </si>
+  <si>
     <t>6반 vs 5반</t>
   </si>
   <si>
+    <t>10반 vs 9반</t>
+  </si>
+  <si>
     <t>8반 vs 6반</t>
   </si>
   <si>
-    <t>12반 vs 6반</t>
-  </si>
-  <si>
-    <t>7반 vs 5반</t>
+    <t>4반 vs 3반</t>
   </si>
   <si>
     <t>3반 vs 10반</t>
   </si>
   <si>
-    <t>7반 vs 9반</t>
-  </si>
-  <si>
-    <t>5반 vs 3반</t>
-  </si>
-  <si>
-    <t>10반 vs 12반</t>
-  </si>
-  <si>
-    <t>8반 vs 1반</t>
+    <t>7반 vs 3반</t>
+  </si>
+  <si>
+    <t>8반 vs 7반</t>
   </si>
   <si>
     <t>8반 vs 5반</t>
   </si>
   <si>
-    <t>12반 vs 11반</t>
-  </si>
-  <si>
-    <t>11반 vs 10반</t>
-  </si>
-  <si>
-    <t>3반 vs 8반</t>
-  </si>
-  <si>
-    <t>8반 vs 2반</t>
+    <t>11반 vs 3반</t>
+  </si>
+  <si>
+    <t>7반 vs 12반</t>
+  </si>
+  <si>
+    <t>12반 vs 3반</t>
+  </si>
+  <si>
+    <t>11반 vs 9반</t>
+  </si>
+  <si>
+    <t>1반 vs 2반</t>
   </si>
   <si>
     <t>7반 vs 8반</t>
   </si>
   <si>
-    <t>3반 vs 6반</t>
-  </si>
-  <si>
-    <t>12반 vs 8반</t>
-  </si>
-  <si>
-    <t>2반 vs 8반</t>
-  </si>
-  <si>
-    <t>1반 vs 7반</t>
-  </si>
-  <si>
-    <t>11반 vs 3반</t>
-  </si>
-  <si>
-    <t>12반 vs 3반</t>
-  </si>
-  <si>
-    <t>9반 vs 11반</t>
-  </si>
-  <si>
-    <t>12반 vs 4반</t>
-  </si>
-  <si>
-    <t>3반 vs 12반</t>
-  </si>
-  <si>
-    <t>4반 vs 12반</t>
-  </si>
-  <si>
-    <t>10반 vs 9반</t>
-  </si>
-  <si>
-    <t>7반 vs 12반</t>
-  </si>
-  <si>
-    <t>1반 vs 12반</t>
-  </si>
-  <si>
-    <t>4반 vs 3반</t>
-  </si>
-  <si>
-    <t>8반 vs 7반</t>
-  </si>
-  <si>
-    <t>4반 vs 9반</t>
-  </si>
-  <si>
-    <t>6반 vs 10반</t>
-  </si>
-  <si>
-    <t>11반 vs 9반</t>
-  </si>
-  <si>
-    <t>7반 vs 3반</t>
-  </si>
-  <si>
-    <t>9반 vs 6반</t>
-  </si>
-  <si>
-    <t>2반 vs 7반</t>
-  </si>
-  <si>
-    <t>1반 vs 2반</t>
-  </si>
-  <si>
-    <t>7반 vs 6반</t>
-  </si>
-  <si>
-    <t>2반 vs 6반</t>
-  </si>
-  <si>
-    <t>6반 vs 1반</t>
+    <t>조</t>
+  </si>
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>점수(승팀)</t>
+  </si>
+  <si>
+    <t>패팀</t>
+  </si>
+  <si>
+    <t>A조</t>
+  </si>
+  <si>
+    <t>C조</t>
+  </si>
+  <si>
+    <t>성별</t>
+  </si>
+  <si>
+    <t>학년</t>
+  </si>
+  <si>
+    <t>남</t>
+  </si>
+  <si>
+    <t>점수(패팀)</t>
   </si>
   <si>
     <t>B조</t>
   </si>
   <si>
-    <t>패팀</t>
-  </si>
-  <si>
-    <t>조</t>
+    <t>경기</t>
   </si>
   <si>
     <t>승팀</t>
   </si>
   <si>
-    <t>학년</t>
-  </si>
-  <si>
     <t>여</t>
-  </si>
-  <si>
-    <t>경기</t>
-  </si>
-  <si>
-    <t>점수(패팀)</t>
-  </si>
-  <si>
-    <t>남</t>
-  </si>
-  <si>
-    <t>날짜</t>
-  </si>
-  <si>
-    <t>점수(승팀)</t>
-  </si>
-  <si>
-    <t>A조</t>
-  </si>
-  <si>
-    <t>성별</t>
-  </si>
-  <si>
-    <t>C조</t>
   </si>
 </sst>
 </file>
@@ -277,6 +277,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -294,14 +301,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="나눔명조"/>
       <family val="3"/>
@@ -314,6 +313,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -345,269 +350,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -626,12 +374,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -642,126 +642,126 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="입력" xfId="1" builtinId="20"/>
+    <cellStyle name="입력" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1072,8 +1072,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="45" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1084,31 +1084,31 @@
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>68</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1156,10 +1156,10 @@
         <v>75</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="22">
         <v>11</v>
@@ -1185,10 +1185,10 @@
         <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5">
         <v>5</v>
@@ -1214,10 +1214,10 @@
         <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5">
         <v>6</v>
@@ -1243,10 +1243,10 @@
         <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
@@ -1272,10 +1272,10 @@
         <v>75</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -1301,10 +1301,10 @@
         <v>75</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -1330,10 +1330,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5">
         <v>10</v>
@@ -1359,10 +1359,10 @@
         <v>75</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F9" s="15">
         <v>2</v>
@@ -1385,18 +1385,26 @@
         <v>1</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="29">
+        <v>5</v>
+      </c>
+      <c r="G10" s="29">
+        <v>21</v>
+      </c>
+      <c r="H10" s="29">
+        <v>15</v>
+      </c>
+      <c r="I10" s="30">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="9">
@@ -1406,18 +1414,26 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="5">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5">
         <v>21</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="5">
+        <v>11</v>
+      </c>
+      <c r="I11" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="9">
@@ -1427,18 +1443,26 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="9">
@@ -1448,18 +1472,26 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5">
+        <v>21</v>
+      </c>
+      <c r="H13" s="5">
+        <v>12</v>
+      </c>
+      <c r="I13" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="9">
@@ -1469,18 +1501,26 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5">
+        <v>21</v>
+      </c>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+      <c r="I14" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" s="9">
@@ -1490,18 +1530,26 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5">
+        <v>15</v>
+      </c>
+      <c r="I15" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" s="9">
@@ -1511,18 +1559,26 @@
         <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="F16" s="5">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5">
+        <v>21</v>
+      </c>
+      <c r="H16" s="5">
+        <v>15</v>
+      </c>
+      <c r="I16" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="31">
@@ -1532,18 +1588,26 @@
         <v>2</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>80</v>
-      </c>
       <c r="E17" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="35">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35">
+        <v>21</v>
+      </c>
+      <c r="H17" s="35">
+        <v>13</v>
+      </c>
+      <c r="I17" s="36">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="18">
@@ -1556,10 +1620,10 @@
         <v>75</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -1577,10 +1641,10 @@
         <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1598,10 +1662,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1619,10 +1683,10 @@
         <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1640,10 +1704,10 @@
         <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1661,10 +1725,10 @@
         <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1682,10 +1746,10 @@
         <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1703,10 +1767,10 @@
         <v>75</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1721,13 +1785,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -1742,13 +1806,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1763,13 +1827,13 @@
         <v>1</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -1784,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1805,13 +1869,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -1826,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1847,10 +1911,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>4</v>
@@ -1871,10 +1935,10 @@
         <v>75</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -1892,10 +1956,10 @@
         <v>75</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1913,10 +1977,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1934,10 +1998,10 @@
         <v>75</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -1955,10 +2019,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1976,10 +2040,10 @@
         <v>75</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -1997,10 +2061,10 @@
         <v>75</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -2018,10 +2082,10 @@
         <v>75</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -2036,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
@@ -2057,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -2078,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -2099,13 +2163,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -2120,13 +2184,13 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -2141,13 +2205,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -2162,13 +2226,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2183,13 +2247,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="34" t="s">
-        <v>80</v>
-      </c>
       <c r="E48" s="34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -2207,10 +2271,10 @@
         <v>75</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -2228,10 +2292,10 @@
         <v>75</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -2249,10 +2313,10 @@
         <v>75</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -2270,10 +2334,10 @@
         <v>75</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -2291,10 +2355,10 @@
         <v>75</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -2312,10 +2376,10 @@
         <v>75</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -2333,10 +2397,10 @@
         <v>75</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -2354,7 +2418,7 @@
         <v>75</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>4</v>
@@ -2372,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
@@ -2393,13 +2457,13 @@
         <v>1</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -2414,13 +2478,13 @@
         <v>1</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -2435,13 +2499,13 @@
         <v>3</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -2456,13 +2520,13 @@
         <v>3</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -2477,13 +2541,13 @@
         <v>2</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -2498,13 +2562,13 @@
         <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -2522,10 +2586,10 @@
         <v>75</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
@@ -2543,10 +2607,10 @@
         <v>75</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -2564,10 +2628,10 @@
         <v>75</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -2585,10 +2649,10 @@
         <v>75</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -2606,10 +2670,10 @@
         <v>75</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -2627,10 +2691,10 @@
         <v>75</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -2648,10 +2712,10 @@
         <v>75</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -2669,10 +2733,10 @@
         <v>75</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -2687,13 +2751,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
@@ -2708,13 +2772,13 @@
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -2729,13 +2793,13 @@
         <v>1</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E74" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -2750,13 +2814,13 @@
         <v>3</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -2771,13 +2835,13 @@
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -2792,13 +2856,13 @@
         <v>2</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -2813,13 +2877,13 @@
         <v>2</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -2834,13 +2898,13 @@
         <v>2</v>
       </c>
       <c r="C79" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="34" t="s">
-        <v>80</v>
-      </c>
       <c r="E79" s="34" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
@@ -2858,10 +2922,10 @@
         <v>75</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
@@ -2879,10 +2943,10 @@
         <v>75</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -2900,10 +2964,10 @@
         <v>75</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -2921,10 +2985,10 @@
         <v>75</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2942,10 +3006,10 @@
         <v>75</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -2963,10 +3027,10 @@
         <v>75</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -2984,10 +3048,10 @@
         <v>75</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -3005,10 +3069,10 @@
         <v>75</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
@@ -3023,13 +3087,13 @@
         <v>1</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
@@ -3044,13 +3108,13 @@
         <v>1</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -3065,13 +3129,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E90" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -3086,13 +3150,13 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -3107,13 +3171,13 @@
         <v>3</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -3128,13 +3192,13 @@
         <v>2</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -3149,13 +3213,13 @@
         <v>2</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
@@ -3164,7 +3228,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F63AD8-1C89-A64B-97F6-5024D33AF039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BC2C22-6E2D-5742-B48E-B153D8A2A8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:AQ94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1625,10 +1625,18 @@
       <c r="E18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="F18" s="22">
+        <v>4</v>
+      </c>
+      <c r="G18" s="22">
+        <v>21</v>
+      </c>
+      <c r="H18" s="22">
+        <v>18</v>
+      </c>
+      <c r="I18" s="23">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="9">
@@ -1646,10 +1654,18 @@
       <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="10"/>
+      <c r="F19" s="5">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5">
+        <v>21</v>
+      </c>
+      <c r="H19" s="5">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9">
@@ -1667,10 +1683,18 @@
       <c r="E20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="10"/>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>21</v>
+      </c>
+      <c r="H20" s="5">
+        <v>17</v>
+      </c>
+      <c r="I20" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="9">
@@ -1688,10 +1712,18 @@
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="10"/>
+      <c r="F21" s="5">
+        <v>4</v>
+      </c>
+      <c r="G21" s="5">
+        <v>21</v>
+      </c>
+      <c r="H21" s="5">
+        <v>16</v>
+      </c>
+      <c r="I21" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="9">
@@ -1709,10 +1741,18 @@
       <c r="E22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="10"/>
+      <c r="F22" s="5">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5">
+        <v>21</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="9">
@@ -1730,10 +1770,18 @@
       <c r="E23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="10"/>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>21</v>
+      </c>
+      <c r="H23" s="5">
+        <v>13</v>
+      </c>
+      <c r="I23" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="9">
@@ -1751,10 +1799,18 @@
       <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="10"/>
+      <c r="F24" s="5">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5">
+        <v>21</v>
+      </c>
+      <c r="H24" s="5">
+        <v>14</v>
+      </c>
+      <c r="I24" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11">
@@ -1772,10 +1828,18 @@
       <c r="E25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
+      <c r="F25" s="15">
+        <v>3</v>
+      </c>
+      <c r="G25" s="15">
+        <v>21</v>
+      </c>
+      <c r="H25" s="15">
+        <v>18</v>
+      </c>
+      <c r="I25" s="16">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="25">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BC2C22-6E2D-5742-B48E-B153D8A2A8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EAC0C5-506A-1B4D-AC8C-AE89386F9D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:AQ94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1452,7 +1452,7 @@
         <v>58</v>
       </c>
       <c r="F12" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G12" s="5">
         <v>21</v>
@@ -1461,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:43">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EAC0C5-506A-1B4D-AC8C-AE89386F9D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65873694-DA58-F642-8DF0-983F1273438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8940" yWindow="1860" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1072,8 +1072,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="74" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1857,10 +1857,18 @@
       <c r="E26" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
+      <c r="F26" s="29">
+        <v>1</v>
+      </c>
+      <c r="G26" s="29">
+        <v>21</v>
+      </c>
+      <c r="H26" s="29">
+        <v>10</v>
+      </c>
+      <c r="I26" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="9">
@@ -1878,10 +1886,18 @@
       <c r="E27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="10"/>
+      <c r="F27" s="5">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5">
+        <v>21</v>
+      </c>
+      <c r="H27" s="5">
+        <v>12</v>
+      </c>
+      <c r="I27" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="9">
@@ -1899,10 +1915,18 @@
       <c r="E28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="10"/>
+      <c r="F28" s="5">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5">
+        <v>21</v>
+      </c>
+      <c r="H28" s="5">
+        <v>14</v>
+      </c>
+      <c r="I28" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="9">
@@ -1920,10 +1944,18 @@
       <c r="E29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="10"/>
+      <c r="F29" s="5">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5">
+        <v>21</v>
+      </c>
+      <c r="H29" s="5">
+        <v>16</v>
+      </c>
+      <c r="I29" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="9">
@@ -1941,10 +1973,18 @@
       <c r="E30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="10"/>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>21</v>
+      </c>
+      <c r="H30" s="5">
+        <v>18</v>
+      </c>
+      <c r="I30" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="9">
@@ -1962,10 +2002,18 @@
       <c r="E31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="10"/>
+      <c r="F31" s="5">
+        <v>11</v>
+      </c>
+      <c r="G31" s="5">
+        <v>21</v>
+      </c>
+      <c r="H31" s="5">
+        <v>16</v>
+      </c>
+      <c r="I31" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="31">
@@ -1983,10 +2031,18 @@
       <c r="E32" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+      <c r="F32" s="35">
+        <v>4</v>
+      </c>
+      <c r="G32" s="35">
+        <v>21</v>
+      </c>
+      <c r="H32" s="35">
+        <v>12</v>
+      </c>
+      <c r="I32" s="36">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="18">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65873694-DA58-F642-8DF0-983F1273438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A6266-6F4E-A64D-82BF-230FAA0FE1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="1860" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:AQ94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1857,18 +1857,10 @@
       <c r="E26" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="29">
-        <v>1</v>
-      </c>
-      <c r="G26" s="29">
-        <v>21</v>
-      </c>
-      <c r="H26" s="29">
-        <v>10</v>
-      </c>
-      <c r="I26" s="30">
-        <v>2</v>
-      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="9">
@@ -1886,18 +1878,10 @@
       <c r="E27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="5">
-        <v>9</v>
-      </c>
-      <c r="G27" s="5">
-        <v>21</v>
-      </c>
-      <c r="H27" s="5">
-        <v>12</v>
-      </c>
-      <c r="I27" s="10">
-        <v>10</v>
-      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="9">
@@ -1915,18 +1899,10 @@
       <c r="E28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="5">
-        <v>4</v>
-      </c>
-      <c r="G28" s="5">
-        <v>21</v>
-      </c>
-      <c r="H28" s="5">
-        <v>14</v>
-      </c>
-      <c r="I28" s="10">
-        <v>12</v>
-      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="9">
@@ -1944,18 +1920,10 @@
       <c r="E29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="5">
-        <v>12</v>
-      </c>
-      <c r="G29" s="5">
-        <v>21</v>
-      </c>
-      <c r="H29" s="5">
-        <v>16</v>
-      </c>
-      <c r="I29" s="10">
-        <v>11</v>
-      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="9">
@@ -1973,18 +1941,10 @@
       <c r="E30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-      <c r="G30" s="5">
-        <v>21</v>
-      </c>
-      <c r="H30" s="5">
-        <v>18</v>
-      </c>
-      <c r="I30" s="10">
-        <v>6</v>
-      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="9">
@@ -2002,18 +1962,10 @@
       <c r="E31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="5">
-        <v>11</v>
-      </c>
-      <c r="G31" s="5">
-        <v>21</v>
-      </c>
-      <c r="H31" s="5">
-        <v>16</v>
-      </c>
-      <c r="I31" s="10">
-        <v>10</v>
-      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="31">
@@ -2031,18 +1983,10 @@
       <c r="E32" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="35">
-        <v>4</v>
-      </c>
-      <c r="G32" s="35">
-        <v>21</v>
-      </c>
-      <c r="H32" s="35">
-        <v>12</v>
-      </c>
-      <c r="I32" s="36">
-        <v>8</v>
-      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="18">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A6266-6F4E-A64D-82BF-230FAA0FE1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D8747-2550-1E4A-825B-1441993413FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -304,6 +304,13 @@
       <sz val="8"/>
       <name val="나눔명조"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -635,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +764,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,7 +1083,7 @@
   <dimension ref="A1:AQ94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1857,10 +1867,18 @@
       <c r="E26" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
+      <c r="F26" s="29">
+        <v>1</v>
+      </c>
+      <c r="G26" s="29">
+        <v>21</v>
+      </c>
+      <c r="H26" s="29">
+        <v>20</v>
+      </c>
+      <c r="I26" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="9">
@@ -1878,10 +1896,18 @@
       <c r="E27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="10"/>
+      <c r="F27" s="5">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5">
+        <v>21</v>
+      </c>
+      <c r="H27" s="5">
+        <v>19</v>
+      </c>
+      <c r="I27" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="9">
@@ -1899,10 +1925,18 @@
       <c r="E28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="10"/>
+      <c r="F28" s="5">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5">
+        <v>21</v>
+      </c>
+      <c r="H28" s="5">
+        <v>10</v>
+      </c>
+      <c r="I28" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="9">
@@ -1920,10 +1954,18 @@
       <c r="E29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="10"/>
+      <c r="F29" s="5">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5">
+        <v>21</v>
+      </c>
+      <c r="H29" s="5">
+        <v>15</v>
+      </c>
+      <c r="I29" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="9">
@@ -1941,10 +1983,18 @@
       <c r="E30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="10"/>
+      <c r="F30" s="5">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5">
+        <v>21</v>
+      </c>
+      <c r="H30" s="5">
+        <v>4</v>
+      </c>
+      <c r="I30" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="9">
@@ -1962,10 +2012,18 @@
       <c r="E31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="10"/>
+      <c r="F31" s="5">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5">
+        <v>21</v>
+      </c>
+      <c r="H31" s="5">
+        <v>17</v>
+      </c>
+      <c r="I31" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="31">
@@ -1983,10 +2041,18 @@
       <c r="E32" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+      <c r="F32" s="35">
+        <v>8</v>
+      </c>
+      <c r="G32" s="35">
+        <v>21</v>
+      </c>
+      <c r="H32" s="41">
+        <v>17</v>
+      </c>
+      <c r="I32" s="36">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="18">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D8747-2550-1E4A-825B-1441993413FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3608ECF8-CC86-3444-8980-6755ECF01CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,8 +1082,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -2070,10 +2070,18 @@
       <c r="E33" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="23"/>
+      <c r="F33" s="22">
+        <v>11</v>
+      </c>
+      <c r="G33" s="22">
+        <v>21</v>
+      </c>
+      <c r="H33" s="22">
+        <v>15</v>
+      </c>
+      <c r="I33" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="9">
@@ -2091,10 +2099,18 @@
       <c r="E34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="10"/>
+      <c r="F34" s="5">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5">
+        <v>21</v>
+      </c>
+      <c r="H34" s="5">
+        <v>14</v>
+      </c>
+      <c r="I34" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="9">
@@ -2112,10 +2128,18 @@
       <c r="E35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="10"/>
+      <c r="F35" s="5">
+        <v>6</v>
+      </c>
+      <c r="G35" s="5">
+        <v>21</v>
+      </c>
+      <c r="H35" s="5">
+        <v>17</v>
+      </c>
+      <c r="I35" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="9">
@@ -2133,10 +2157,18 @@
       <c r="E36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="10"/>
+      <c r="F36" s="5">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5">
+        <v>21</v>
+      </c>
+      <c r="H36" s="5">
+        <v>10</v>
+      </c>
+      <c r="I36" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="9">
@@ -2154,10 +2186,18 @@
       <c r="E37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="10"/>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>21</v>
+      </c>
+      <c r="H37" s="5">
+        <v>16</v>
+      </c>
+      <c r="I37" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="9">
@@ -2175,10 +2215,18 @@
       <c r="E38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="10"/>
+      <c r="F38" s="5">
+        <v>6</v>
+      </c>
+      <c r="G38" s="5">
+        <v>21</v>
+      </c>
+      <c r="H38" s="5">
+        <v>17</v>
+      </c>
+      <c r="I38" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="9">
@@ -2196,10 +2244,18 @@
       <c r="E39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="10"/>
+      <c r="F39" s="5">
+        <v>7</v>
+      </c>
+      <c r="G39" s="5">
+        <v>21</v>
+      </c>
+      <c r="H39" s="5">
+        <v>20</v>
+      </c>
+      <c r="I39" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="11">
@@ -2217,10 +2273,18 @@
       <c r="E40" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
+      <c r="F40" s="15">
+        <v>3</v>
+      </c>
+      <c r="G40" s="15">
+        <v>21</v>
+      </c>
+      <c r="H40" s="15">
+        <v>19</v>
+      </c>
+      <c r="I40" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="25">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3608ECF8-CC86-3444-8980-6755ECF01CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9FE1F0-E0DB-AA48-A545-A9127E10D545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,8 +1082,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -2302,10 +2302,18 @@
       <c r="E41" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
+      <c r="F41" s="29">
+        <v>1</v>
+      </c>
+      <c r="G41" s="29">
+        <v>21</v>
+      </c>
+      <c r="H41" s="29">
+        <v>14</v>
+      </c>
+      <c r="I41" s="30">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="9">
@@ -2323,10 +2331,18 @@
       <c r="E42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="10"/>
+      <c r="F42" s="5">
+        <v>9</v>
+      </c>
+      <c r="G42" s="5">
+        <v>21</v>
+      </c>
+      <c r="H42" s="5">
+        <v>19</v>
+      </c>
+      <c r="I42" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="9">
@@ -2344,10 +2360,18 @@
       <c r="E43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="10"/>
+      <c r="F43" s="5">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5">
+        <v>21</v>
+      </c>
+      <c r="H43" s="5">
+        <v>8</v>
+      </c>
+      <c r="I43" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="9">
@@ -2365,10 +2389,18 @@
       <c r="E44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="10"/>
+      <c r="F44" s="5">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5">
+        <v>21</v>
+      </c>
+      <c r="H44" s="5">
+        <v>15</v>
+      </c>
+      <c r="I44" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="9">
@@ -2386,10 +2418,18 @@
       <c r="E45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="10"/>
+      <c r="F45" s="5">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>21</v>
+      </c>
+      <c r="H45" s="5">
+        <v>16</v>
+      </c>
+      <c r="I45" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="9">
@@ -2407,10 +2447,18 @@
       <c r="E46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="10"/>
+      <c r="F46" s="5">
+        <v>9</v>
+      </c>
+      <c r="G46" s="5">
+        <v>21</v>
+      </c>
+      <c r="H46" s="5">
+        <v>15</v>
+      </c>
+      <c r="I46" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="9">
@@ -2428,10 +2476,18 @@
       <c r="E47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="10"/>
+      <c r="F47" s="5">
+        <v>7</v>
+      </c>
+      <c r="G47" s="5">
+        <v>21</v>
+      </c>
+      <c r="H47" s="5">
+        <v>14</v>
+      </c>
+      <c r="I47" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="31">
@@ -2449,10 +2505,18 @@
       <c r="E48" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
+      <c r="F48" s="35">
+        <v>2</v>
+      </c>
+      <c r="G48" s="35">
+        <v>21</v>
+      </c>
+      <c r="H48" s="35">
+        <v>20</v>
+      </c>
+      <c r="I48" s="36">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="18">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9FE1F0-E0DB-AA48-A545-A9127E10D545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37D91C2-F694-5344-9CE7-117E130FB19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,8 +1082,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -2534,10 +2534,18 @@
       <c r="E49" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
+      <c r="F49" s="22">
+        <v>7</v>
+      </c>
+      <c r="G49" s="22">
+        <v>21</v>
+      </c>
+      <c r="H49" s="22">
+        <v>11</v>
+      </c>
+      <c r="I49" s="23">
+        <v>9</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="9">
@@ -2555,10 +2563,18 @@
       <c r="E50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="10"/>
+      <c r="F50" s="5">
+        <v>3</v>
+      </c>
+      <c r="G50" s="5">
+        <v>21</v>
+      </c>
+      <c r="H50" s="5">
+        <v>19</v>
+      </c>
+      <c r="I50" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="9">
@@ -2576,10 +2592,18 @@
       <c r="E51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="10"/>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5">
+        <v>21</v>
+      </c>
+      <c r="H51" s="5">
+        <v>18</v>
+      </c>
+      <c r="I51" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="9">
@@ -2597,10 +2621,18 @@
       <c r="E52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="10"/>
+      <c r="F52" s="5">
+        <v>3</v>
+      </c>
+      <c r="G52" s="5">
+        <v>21</v>
+      </c>
+      <c r="H52" s="5">
+        <v>13</v>
+      </c>
+      <c r="I52" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="9">
@@ -2618,10 +2650,18 @@
       <c r="E53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="10"/>
+      <c r="F53" s="5">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5">
+        <v>21</v>
+      </c>
+      <c r="H53" s="5">
+        <v>18</v>
+      </c>
+      <c r="I53" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="9">
@@ -2639,10 +2679,18 @@
       <c r="E54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="10"/>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>21</v>
+      </c>
+      <c r="H54" s="5">
+        <v>19</v>
+      </c>
+      <c r="I54" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="9">
@@ -2660,10 +2708,18 @@
       <c r="E55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="10"/>
+      <c r="F55" s="5">
+        <v>11</v>
+      </c>
+      <c r="G55" s="5">
+        <v>21</v>
+      </c>
+      <c r="H55" s="5">
+        <v>14</v>
+      </c>
+      <c r="I55" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="11">
@@ -2681,10 +2737,18 @@
       <c r="E56" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="16"/>
+      <c r="F56" s="15">
+        <v>4</v>
+      </c>
+      <c r="G56" s="15">
+        <v>21</v>
+      </c>
+      <c r="H56" s="15">
+        <v>14</v>
+      </c>
+      <c r="I56" s="16">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="18">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37D91C2-F694-5344-9CE7-117E130FB19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A0B99-EFD8-CD4F-BC44-F0F8F647CB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14880" yWindow="1360" windowWidth="13420" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1082,8 +1082,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -2766,10 +2766,18 @@
       <c r="E57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
+      <c r="F57" s="22">
+        <v>5</v>
+      </c>
+      <c r="G57" s="22">
+        <v>21</v>
+      </c>
+      <c r="H57" s="22">
+        <v>9</v>
+      </c>
+      <c r="I57" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="9">
@@ -2787,10 +2795,18 @@
       <c r="E58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="10"/>
+      <c r="F58" s="5">
+        <v>10</v>
+      </c>
+      <c r="G58" s="5">
+        <v>21</v>
+      </c>
+      <c r="H58" s="5">
+        <v>9</v>
+      </c>
+      <c r="I58" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="9">
@@ -2808,10 +2824,18 @@
       <c r="E59" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="10"/>
+      <c r="F59" s="5">
+        <v>3</v>
+      </c>
+      <c r="G59" s="5">
+        <v>21</v>
+      </c>
+      <c r="H59" s="5">
+        <v>16</v>
+      </c>
+      <c r="I59" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="9">
@@ -2829,10 +2853,18 @@
       <c r="E60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="10"/>
+      <c r="F60" s="5">
+        <v>11</v>
+      </c>
+      <c r="G60" s="5">
+        <v>21</v>
+      </c>
+      <c r="H60" s="5">
+        <v>20</v>
+      </c>
+      <c r="I60" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="9">
@@ -2850,10 +2882,18 @@
       <c r="E61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="10"/>
+      <c r="F61" s="5">
+        <v>6</v>
+      </c>
+      <c r="G61" s="5">
+        <v>21</v>
+      </c>
+      <c r="H61" s="5">
+        <v>13</v>
+      </c>
+      <c r="I61" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="9">
@@ -2871,10 +2911,18 @@
       <c r="E62" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="10"/>
+      <c r="F62" s="5">
+        <v>3</v>
+      </c>
+      <c r="G62" s="5">
+        <v>21</v>
+      </c>
+      <c r="H62" s="5">
+        <v>19</v>
+      </c>
+      <c r="I62" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="11">
@@ -2892,10 +2940,18 @@
       <c r="E63" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
+      <c r="F63" s="15">
+        <v>8</v>
+      </c>
+      <c r="G63" s="15">
+        <v>21</v>
+      </c>
+      <c r="H63" s="15">
+        <v>12</v>
+      </c>
+      <c r="I63" s="16">
+        <v>12</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="18">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A0B99-EFD8-CD4F-BC44-F0F8F647CB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64024338-3D40-A347-A3F7-1B364D380144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="1360" windowWidth="13420" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="740" windowWidth="17880" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1082,8 +1082,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -2767,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G57" s="22">
         <v>21</v>
@@ -2776,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="I57" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2969,10 +2969,18 @@
       <c r="E64" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="23"/>
+      <c r="F64" s="22">
+        <v>11</v>
+      </c>
+      <c r="G64" s="22">
+        <v>21</v>
+      </c>
+      <c r="H64" s="22">
+        <v>16</v>
+      </c>
+      <c r="I64" s="23">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="9">
@@ -2990,10 +2998,18 @@
       <c r="E65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="10"/>
+      <c r="F65" s="5">
+        <v>3</v>
+      </c>
+      <c r="G65" s="5">
+        <v>21</v>
+      </c>
+      <c r="H65" s="5">
+        <v>8</v>
+      </c>
+      <c r="I65" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="9">
@@ -3011,10 +3027,18 @@
       <c r="E66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="10"/>
+      <c r="F66" s="5">
+        <v>6</v>
+      </c>
+      <c r="G66" s="5">
+        <v>21</v>
+      </c>
+      <c r="H66" s="5">
+        <v>19</v>
+      </c>
+      <c r="I66" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="9">
@@ -3032,10 +3056,18 @@
       <c r="E67" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="10"/>
+      <c r="F67" s="5">
+        <v>2</v>
+      </c>
+      <c r="G67" s="5">
+        <v>21</v>
+      </c>
+      <c r="H67" s="5">
+        <v>19</v>
+      </c>
+      <c r="I67" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="9">
@@ -3053,10 +3085,18 @@
       <c r="E68" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="10"/>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5">
+        <v>21</v>
+      </c>
+      <c r="H68" s="5">
+        <v>12</v>
+      </c>
+      <c r="I68" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="9">
@@ -3074,10 +3114,18 @@
       <c r="E69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="10"/>
+      <c r="F69" s="5">
+        <v>5</v>
+      </c>
+      <c r="G69" s="5">
+        <v>21</v>
+      </c>
+      <c r="H69" s="5">
+        <v>20</v>
+      </c>
+      <c r="I69" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="9">
@@ -3095,10 +3143,18 @@
       <c r="E70" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="10"/>
+      <c r="F70" s="5">
+        <v>9</v>
+      </c>
+      <c r="G70" s="5">
+        <v>21</v>
+      </c>
+      <c r="H70" s="5">
+        <v>14</v>
+      </c>
+      <c r="I70" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="11">
@@ -3116,10 +3172,18 @@
       <c r="E71" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="16"/>
+      <c r="F71" s="15">
+        <v>2</v>
+      </c>
+      <c r="G71" s="15">
+        <v>21</v>
+      </c>
+      <c r="H71" s="15">
+        <v>10</v>
+      </c>
+      <c r="I71" s="16">
+        <v>8</v>
+      </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="25">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64024338-3D40-A347-A3F7-1B364D380144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63FE2AA-F04A-D342-B7F1-366747185555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="740" windowWidth="17880" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="740" windowWidth="17880" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1082,8 +1082,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -3201,10 +3201,18 @@
       <c r="E72" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="30"/>
+      <c r="F72" s="29">
+        <v>2</v>
+      </c>
+      <c r="G72" s="29">
+        <v>21</v>
+      </c>
+      <c r="H72" s="29">
+        <v>9</v>
+      </c>
+      <c r="I72" s="30">
+        <v>8</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="9">
@@ -3222,10 +3230,18 @@
       <c r="E73" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="10"/>
+      <c r="F73" s="5">
+        <v>11</v>
+      </c>
+      <c r="G73" s="5">
+        <v>21</v>
+      </c>
+      <c r="H73" s="5">
+        <v>15</v>
+      </c>
+      <c r="I73" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="9">
@@ -3243,10 +3259,18 @@
       <c r="E74" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="10"/>
+      <c r="F74" s="5">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5">
+        <v>21</v>
+      </c>
+      <c r="H74" s="5">
+        <v>13</v>
+      </c>
+      <c r="I74" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="9">
@@ -3264,10 +3288,18 @@
       <c r="E75" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="10"/>
+      <c r="F75" s="5">
+        <v>11</v>
+      </c>
+      <c r="G75" s="5">
+        <v>21</v>
+      </c>
+      <c r="H75" s="5">
+        <v>15</v>
+      </c>
+      <c r="I75" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="9">
@@ -3285,10 +3317,18 @@
       <c r="E76" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="10"/>
+      <c r="F76" s="5">
+        <v>6</v>
+      </c>
+      <c r="G76" s="5">
+        <v>21</v>
+      </c>
+      <c r="H76" s="5">
+        <v>10</v>
+      </c>
+      <c r="I76" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="9">
@@ -3306,10 +3346,18 @@
       <c r="E77" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="10"/>
+      <c r="F77" s="5">
+        <v>10</v>
+      </c>
+      <c r="G77" s="5">
+        <v>21</v>
+      </c>
+      <c r="H77" s="5">
+        <v>19</v>
+      </c>
+      <c r="I77" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="9">
@@ -3327,10 +3375,18 @@
       <c r="E78" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="10"/>
+      <c r="F78" s="5">
+        <v>8</v>
+      </c>
+      <c r="G78" s="5">
+        <v>21</v>
+      </c>
+      <c r="H78" s="5">
+        <v>16</v>
+      </c>
+      <c r="I78" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="31">
@@ -3348,10 +3404,18 @@
       <c r="E79" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="36"/>
+      <c r="F79" s="35">
+        <v>1</v>
+      </c>
+      <c r="G79" s="35">
+        <v>21</v>
+      </c>
+      <c r="H79" s="35">
+        <v>15</v>
+      </c>
+      <c r="I79" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="18">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63FE2AA-F04A-D342-B7F1-366747185555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AB0EFB-3389-4C40-A41A-39478BFCDD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="740" windowWidth="17880" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,8 +1082,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -3433,10 +3433,18 @@
       <c r="E80" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="23"/>
+      <c r="F80" s="22">
+        <v>7</v>
+      </c>
+      <c r="G80" s="22">
+        <v>21</v>
+      </c>
+      <c r="H80" s="22">
+        <v>18</v>
+      </c>
+      <c r="I80" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="9">
@@ -3454,10 +3462,18 @@
       <c r="E81" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="10"/>
+      <c r="F81" s="5">
+        <v>8</v>
+      </c>
+      <c r="G81" s="5">
+        <v>21</v>
+      </c>
+      <c r="H81" s="5">
+        <v>19</v>
+      </c>
+      <c r="I81" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="9">
@@ -3475,10 +3491,18 @@
       <c r="E82" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="10"/>
+      <c r="F82" s="5">
+        <v>10</v>
+      </c>
+      <c r="G82" s="5">
+        <v>21</v>
+      </c>
+      <c r="H82" s="5">
+        <v>13</v>
+      </c>
+      <c r="I82" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="9">
@@ -3496,10 +3520,18 @@
       <c r="E83" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="10"/>
+      <c r="F83" s="5">
+        <v>3</v>
+      </c>
+      <c r="G83" s="5">
+        <v>21</v>
+      </c>
+      <c r="H83" s="5">
+        <v>20</v>
+      </c>
+      <c r="I83" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="9">
@@ -3517,10 +3549,18 @@
       <c r="E84" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="10"/>
+      <c r="F84" s="5">
+        <v>7</v>
+      </c>
+      <c r="G84" s="5">
+        <v>21</v>
+      </c>
+      <c r="H84" s="5">
+        <v>16</v>
+      </c>
+      <c r="I84" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="9">
@@ -3538,10 +3578,18 @@
       <c r="E85" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="10"/>
+      <c r="F85" s="5">
+        <v>6</v>
+      </c>
+      <c r="G85" s="5">
+        <v>21</v>
+      </c>
+      <c r="H85" s="5">
+        <v>15</v>
+      </c>
+      <c r="I85" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="9">
@@ -3559,10 +3607,18 @@
       <c r="E86" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="10"/>
+      <c r="F86" s="5">
+        <v>7</v>
+      </c>
+      <c r="G86" s="5">
+        <v>21</v>
+      </c>
+      <c r="H86" s="5">
+        <v>17</v>
+      </c>
+      <c r="I86" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="11">
@@ -3580,10 +3636,18 @@
       <c r="E87" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="16"/>
+      <c r="F87" s="15">
+        <v>4</v>
+      </c>
+      <c r="G87" s="15">
+        <v>21</v>
+      </c>
+      <c r="H87" s="15">
+        <v>16</v>
+      </c>
+      <c r="I87" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="25">

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AB0EFB-3389-4C40-A41A-39478BFCDD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD9D87E-7FC9-754D-9BF0-A38609D6AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="740" windowWidth="17880" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:AQ94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -3665,10 +3665,18 @@
       <c r="E88" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="30"/>
+      <c r="F88" s="29">
+        <v>5</v>
+      </c>
+      <c r="G88" s="29">
+        <v>21</v>
+      </c>
+      <c r="H88" s="29">
+        <v>20</v>
+      </c>
+      <c r="I88" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="9">
@@ -3686,10 +3694,18 @@
       <c r="E89" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="10"/>
+      <c r="F89" s="5">
+        <v>9</v>
+      </c>
+      <c r="G89" s="5">
+        <v>21</v>
+      </c>
+      <c r="H89" s="5">
+        <v>12</v>
+      </c>
+      <c r="I89" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="9">
@@ -3707,10 +3723,18 @@
       <c r="E90" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="10"/>
+      <c r="F90" s="5">
+        <v>3</v>
+      </c>
+      <c r="G90" s="5">
+        <v>21</v>
+      </c>
+      <c r="H90" s="5">
+        <v>12</v>
+      </c>
+      <c r="I90" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="9">
@@ -3728,10 +3752,18 @@
       <c r="E91" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="10"/>
+      <c r="F91" s="5">
+        <v>4</v>
+      </c>
+      <c r="G91" s="5">
+        <v>21</v>
+      </c>
+      <c r="H91" s="5">
+        <v>18</v>
+      </c>
+      <c r="I91" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="9">
@@ -3749,10 +3781,18 @@
       <c r="E92" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="10"/>
+      <c r="F92" s="5">
+        <v>2</v>
+      </c>
+      <c r="G92" s="5">
+        <v>21</v>
+      </c>
+      <c r="H92" s="5">
+        <v>13</v>
+      </c>
+      <c r="I92" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="9">
@@ -3770,10 +3810,18 @@
       <c r="E93" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="10"/>
+      <c r="F93" s="5">
+        <v>3</v>
+      </c>
+      <c r="G93" s="5">
+        <v>21</v>
+      </c>
+      <c r="H93" s="5">
+        <v>14</v>
+      </c>
+      <c r="I93" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="11">
@@ -3791,10 +3839,18 @@
       <c r="E94" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="16"/>
+      <c r="F94" s="15">
+        <v>12</v>
+      </c>
+      <c r="G94" s="15">
+        <v>21</v>
+      </c>
+      <c r="H94" s="15">
+        <v>19</v>
+      </c>
+      <c r="I94" s="16">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/cjfl.xlsx
+++ b/cjfl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyp/Documents/GitHub/dhskarheowls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD9D87E-7FC9-754D-9BF0-A38609D6AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF9EE9-7375-D442-BF49-0DE8A93780A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="740" windowWidth="17880" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:AQ94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -3521,7 +3521,7 @@
         <v>56</v>
       </c>
       <c r="F83" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" s="5">
         <v>21</v>
@@ -3530,7 +3530,7 @@
         <v>20</v>
       </c>
       <c r="I83" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:9">
